--- a/service-system/target/classes/static/构造深度-2车道.xlsx
+++ b/service-system/target/classes/static/构造深度-2车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0C4CD-2A7A-465E-AA0E-221987C08707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912EE2C5-6309-4D50-A6D0-4F2EFDA2762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土桥" sheetId="459" state="hidden" r:id="rId1"/>
@@ -1375,13 +1375,18 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1946,2502 +1951,6 @@
         <v>2</v>
       </c>
       <c r="L33" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="33" max="11" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="12" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.25972222222222" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="33" max="11" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="12" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="33" max="11" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:L33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="12" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.299212598425197" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="33" max="11" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="12" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4478,8 +1987,7 @@
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -4487,27 +1995,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L33"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4622,10 +2135,10 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -5099,11 +2612,10 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -5111,27 +2623,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5231,8 +2748,8 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
-      <c r="B5" s="30" t="s">
-        <v>27</v>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -5723,11 +3240,2522 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="11" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="11" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="11" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="11" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -5743,13 +5771,18 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L33"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6350,8 +6383,7 @@
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -6366,14 +6398,19 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6971,11 +7008,10 @@
     <mergeCell ref="K32:L32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -10111,13 +10147,18 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10705,11 +10746,10 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -10725,13 +10765,18 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11329,11 +11374,10 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -11349,13 +11393,18 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:L33"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11953,11 +12002,10 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
